--- a/data/species_review/review_species_map_stratton_20231128.xlsx
+++ b/data/species_review/review_species_map_stratton_20231128.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafnuss/Library/CloudStorage/Box-Box/KenyaAtlasComparison/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/raphael_nussbaumer_vogelwarte_ch/Documents/KenyaAtlasComparison/data/species_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C467F1-5BEE-BE49-B12E-D16AC865B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E7C467F1-5BEE-BE49-B12E-D16AC865B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BAA81AE-4CD5-4245-9254-8BCE4087BE32}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="3160" windowWidth="37340" windowHeight="23200" xr2:uid="{2CD25D6D-1434-43DD-B820-3ABA4411CC78}"/>
+    <workbookView xWindow="1180" yWindow="760" windowWidth="29060" windowHeight="18880" activeTab="1" xr2:uid="{2CD25D6D-1434-43DD-B820-3ABA4411CC78}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -693,6 +693,9 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -751,9 +754,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -32996,11 +32996,11 @@
   <autoFilter ref="A1:D8" xr:uid="{1CD98B5E-BB67-41EC-BFE5-0B508A1664A8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F9808BAB-9C65-4AC2-9A69-8409DE8E5893}" name="SEQ1" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B71464E0-53C8-457C-AF20-D2E435D6FF83}" name="SEQ" dataDxfId="2" dataCellStyle="Hyperlink">
-      <calculatedColumnFormula>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{B71464E0-53C8-457C-AF20-D2E435D6FF83}" name="SEQ" dataDxfId="0" dataCellStyle="Hyperlink">
+      <calculatedColumnFormula>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1B359FC3-4603-4AB1-8B44-5C0FC2CC8375}" name="Common Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B791E876-906E-4E04-8695-040110B39694}" name="Stratton's comment" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1B359FC3-4603-4AB1-8B44-5C0FC2CC8375}" name="Common Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B791E876-906E-4E04-8695-040110B39694}" name="Stratton's comment" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -33322,8 +33322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA457FAA-857C-41D4-98E9-93F5448B5CF0}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35170,7 +35170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722724A2-9238-4F57-A723-80363B359CA0}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="B1:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35198,7 +35200,7 @@
         <v>907</v>
       </c>
       <c r="B2" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>907</v>
       </c>
       <c r="C2" t="s">
@@ -35213,7 +35215,7 @@
         <v>408</v>
       </c>
       <c r="B3" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>408</v>
       </c>
       <c r="C3" t="s">
@@ -35228,7 +35230,7 @@
         <v>595</v>
       </c>
       <c r="B4" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>595</v>
       </c>
       <c r="C4" t="s">
@@ -35243,7 +35245,7 @@
         <v>1043</v>
       </c>
       <c r="B5" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>1043</v>
       </c>
       <c r="C5" t="s">
@@ -35258,7 +35260,7 @@
         <v>801</v>
       </c>
       <c r="B6" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>801</v>
       </c>
       <c r="C6" t="s">
@@ -35273,7 +35275,7 @@
         <v>469</v>
       </c>
       <c r="B7" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>469</v>
       </c>
       <c r="C7" t="s">
@@ -35288,7 +35290,7 @@
         <v>987</v>
       </c>
       <c r="B8" s="3">
-        <f>HYPERLINK(_xlfn.CONCAT("https://raphaelnussbaumer.com/KenyaBirdAtlasViz/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kenyabirdtrends.co.ke/?mode=Species&amp;species=",Table3[[#This Row],[SEQ1]]),Table3[[#This Row],[SEQ1]])</f>
         <v>987</v>
       </c>
       <c r="C8" t="s">
